--- a/笔记.xlsx
+++ b/笔记.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B300D3B-E4FE-4A3E-83F1-B01C68C20862}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="注册功能" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +19,111 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>注册页面表单验证，使用回调方式，用了字符串的正则表达式校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password: [{ required: true, trigger: 'blur', validator: validatePssword }]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    const pwdReg = /^(?=.*[a-z])(?=.*[A-Z])(?=.*\d)[^]{8,16}$/
+    const validatePssword = (rule, value, callback) =&gt; {
+      if (value === '') {
+        callback(new Error('请输入密码'))
+      } else if (!pwdReg.test(value)) {
+        callback(new Error('密码最小长度为8位，必须包含大写、小写字母、数字！'))
+      } else {
+        if (this.form1.confirmPassword !== '') {
+          this.$refs.form1.validateField('confirmPassword')
+        }
+        callback()
+      }
+    }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在框架的icon组件，加入新的SVG图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套用框架的icon组件，新增logo组件，插入svg图片。
+新加组件，是因为在icon组件样式设定了width属性，还不会怎么将样式属性也作为组件属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      {
+        test: /\.svg$/,
+        loader: 'svg-sprite-loader',
+        include: [resolve('src/logos')],
+        options: {
+          symbolId: 'logo-[name]'
+        }
+      },</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在webpack base config 中，增加下面的模块定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-form ref="form1" :model="form1" :rules="form1Rules" class="signup-form" label-position="left" @validate="form1ValidateEvent" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    form1ValidateEvent(formItem, isValidate) {
+      if (formItem === 'userphone' &amp;&amp; isValidate) {
+        this.$message('Goto check phone')
+      }
+    },</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能需求：鼠标离开手机号表单项，满足校验条件后，将手机号发送给后台，检查该手机号是否已是注册用户。
+方法：使用Form 的validate事件作为触发时机。
+理解事件回调参数，在哪使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按Element UI的色彩，调整页面样式的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$bg:#ffffff;
+$light_gray:#eee;
+$dark_gray:#606266;
+$border_gray: #DCDFE6;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉container的Position: fixed属性（窗口大小变化滚动条无效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉form的Position: absolute属性（使元素的位置与文档流无关，定位的元素和其他元素重叠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +147,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +437,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CD9772-C8FD-4F9C-BC9B-73B206B23CA7}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>